--- a/7rMartSuperMarket/src/main/resources/TestData.xlsx
+++ b/7rMartSuperMarket/src/main/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tomcy\Java Traning\7rMartSuperMarket\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomcy\git\Selenium_Project\7rMartSuperMarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7CEE73-6B84-4EA9-9E29-63CE1080A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88B7B58-DD45-406A-86CC-E32BFE636E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{D33EEA85-A74F-444B-8BDC-AA14F7F1605D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D33EEA85-A74F-444B-8BDC-AA14F7F1605D}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>username</t>
   </si>
@@ -101,9 +101,6 @@
     <t>usertype</t>
   </si>
   <si>
-    <t>Athiravj</t>
-  </si>
-  <si>
     <t>subcategory</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Apple</t>
+  </si>
+  <si>
+    <t>rtrtrtr</t>
   </si>
 </sst>
 </file>
@@ -464,13 +464,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C6822D-6C1E-4E5E-A2A6-9B8F0BCCF016}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -524,10 +524,14 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -555,7 +559,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -646,7 +650,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A692534E-B196-47C1-853B-FB0E20CB8AB2}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -669,15 +676,15 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/7rMartSuperMarket/src/main/resources/TestData.xlsx
+++ b/7rMartSuperMarket/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomcy\git\Selenium_Project\7rMartSuperMarket\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88B7B58-DD45-406A-86CC-E32BFE636E26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F6F161-05C7-40C8-8391-D22BD9D4F30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D33EEA85-A74F-444B-8BDC-AA14F7F1605D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="4" xr2:uid="{D33EEA85-A74F-444B-8BDC-AA14F7F1605D}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>rtrtrtr</t>
+    <t>nayana</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C6822D-6C1E-4E5E-A2A6-9B8F0BCCF016}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCC7FBD-3161-4517-821E-B9882B708E83}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,7 +653,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
